--- a/docs/assets/disciplinas/LOM3220.xlsx
+++ b/docs/assets/disciplinas/LOM3220.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="40">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>519033 - Carlos Yujiro Shigue</t>
+  </si>
+  <si>
+    <t>7290967 - Emerson Gonçalves de Melo</t>
   </si>
   <si>
     <t>Programa resumido:</t>
@@ -495,7 +498,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -628,98 +631,106 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="60" customHeight="1">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:3">
+      <c r="B14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="C14" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="60" customHeight="1">
       <c r="A15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="120" customHeight="1">
+      <c r="C15" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="60" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>26</v>
-      </c>
     </row>
     <row r="17" spans="1:3" ht="120" customHeight="1">
       <c r="A17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="C17" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="120" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="60" customHeight="1">
+    <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>30</v>
-      </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="C20" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="60" customHeight="1">
+      <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="120" customHeight="1">
-      <c r="A22" s="1" t="s">
+      <c r="B22" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="C22" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="120" customHeight="1">
+      <c r="A23" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1" t="s">
+      <c r="B23" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" ht="30" customHeight="1">
-      <c r="B24" s="2" t="s">
+      <c r="C23" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>38</v>
+    </row>
+    <row r="25" spans="1:3" ht="30" customHeight="1">
+      <c r="B25" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/docs/assets/disciplinas/LOM3220.xlsx
+++ b/docs/assets/disciplinas/LOM3220.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>Apresentar os conceitos de spintrônica e as potenciais aplicações em computação quântica.</t>
+    <t>519033 - Carlos Yujiro Shigue</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -79,63 +79,43 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>519033 - Carlos Yujiro Shigue</t>
+    <t>Programa resumido:</t>
+  </si>
+  <si>
+    <t>Short syllabus:</t>
+  </si>
+  <si>
+    <t>Programa:</t>
+  </si>
+  <si>
+    <t>Syllabus:</t>
+  </si>
+  <si>
+    <t>Avaliação:</t>
+  </si>
+  <si>
+    <t>Método:</t>
   </si>
   <si>
     <t>7290967 - Emerson Gonçalves de Melo</t>
   </si>
   <si>
-    <t>Programa resumido:</t>
-  </si>
-  <si>
-    <t>Introdução à nanotecnologia. Spintrônica de metais. Spintrônica de semicondutores. Dispositivos da spintrônica. Introdução à computação clássica. Introdução à computação quântica. Algoritmos quânticos. Decoerência. Pontos quânticos. Transistor de Kane. Introdução a modelos da consciência: o cérebro é um computador quântico?</t>
-  </si>
-  <si>
-    <t>Short syllabus:</t>
-  </si>
-  <si>
-    <t>Programa:</t>
-  </si>
-  <si>
-    <t>Introdução à nanotecnologia.
-Spintrônica de metais. Spintrônica de semicondutores 
-Dispositivos da spintrônica.
-Introdução à computação clássica. Introdução à computação quântica. Algoritmos quânticos.
-Decoerência. Pontos quânticos. 
-Transistor de Kane.
-Introdução a modelos da consciência: o cérebro é um computador quântico?</t>
-  </si>
-  <si>
-    <t>Syllabus:</t>
-  </si>
-  <si>
-    <t>Avaliação:</t>
-  </si>
-  <si>
-    <t>Método:</t>
+    <t>Critério:</t>
   </si>
   <si>
     <t>Aulas expositivas, seminários e exercícios comentados.</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>Média aritmética de duas provas sendo a primeira com peso 1 e a segunda com peso 2.</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>Aplicação de uma prova escrita dentro do prazo regimental antes do início do próximo semestre letivo. A nota da segunda avaliação será a média aritmética entre a nota da prova de recuperação e a nota final da primeira avaliação</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>KITAEV, A. YU.; SHEN, A. H.; VYALVI, M. N. Classical and Quantum Computation, American Mathematical Society; 2002.
-BENENTI, G.; CASATI, G.; STRINI, G. Principles of Quantum Computation and Information, Vol. I: Basic Concepts, 2004.
-LO, H. K.; POPESCU, S.; SPILLER, T. Introduction to Quantum Computation and Information World Scientific Publishing Company, 2001.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -498,7 +478,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -623,56 +603,62 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="B14" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="60" customHeight="1">
+      <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60" customHeight="1">
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="120" customHeight="1">
+      <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="60" customHeight="1">
-      <c r="A16" s="1" t="s">
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="120" customHeight="1">
-      <c r="A17" s="1" t="s">
+    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C18" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="120" customHeight="1">
-      <c r="A18" s="1" t="s">
+    <row r="19" spans="1:3" ht="60" customHeight="1">
+      <c r="A19" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="1" t="s">
+      <c r="B19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -687,7 +673,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
+    <row r="21" spans="1:3" ht="120" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
@@ -698,39 +684,17 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="60" customHeight="1">
+    <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="2" t="s">
+    </row>
+    <row r="23" spans="1:3" ht="30" customHeight="1">
+      <c r="B23" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C23" s="3" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="120" customHeight="1">
-      <c r="A23" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="30" customHeight="1">
-      <c r="B25" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/docs/assets/disciplinas/LOM3220.xlsx
+++ b/docs/assets/disciplinas/LOM3220.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="39">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -58,7 +58,7 @@
     <t>Ativação:</t>
   </si>
   <si>
-    <t>01/01/2012</t>
+    <t>01/01/2023</t>
   </si>
   <si>
     <t>Semestre ideal:</t>
@@ -76,6 +76,9 @@
     <t>Objectives:</t>
   </si>
   <si>
+    <t>To present the concepts of spintronics and the potential applications in quantum computing.</t>
+  </si>
+  <si>
     <t>Docentes responsáveis:</t>
   </si>
   <si>
@@ -85,10 +88,16 @@
     <t>Short syllabus:</t>
   </si>
   <si>
+    <t>Introduction to nanotechnology. Metal spintronics. Semiconductor spintronics. Spintronics devices. Introduction to classical computing. Introduction to quantum computing. Quantum Algorithms. decoherence. Quantum Dots. Kane transistor. Introduction to models of consciousness: is the brain a quantum computer?</t>
+  </si>
+  <si>
     <t>Programa:</t>
   </si>
   <si>
     <t>Syllabus:</t>
+  </si>
+  <si>
+    <t>Introduction to nanotechnology.Metal spintronics. Semiconductor SpintronicsSpintronics devices.Introduction to classical computing. Introduction to quantum computing. Quantum Algorithms.decoherence. Quantum Dots.Kane transistor.Introduction to models of consciousness: is the brain a quantum computer?</t>
   </si>
   <si>
     <t>Avaliação:</t>
@@ -597,15 +606,21 @@
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="B11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="60" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>14</v>
@@ -616,12 +631,18 @@
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>18</v>
@@ -632,69 +653,75 @@
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="60" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="120" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="30" customHeight="1">
       <c r="B23" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/docs/assets/disciplinas/LOM3220.xlsx
+++ b/docs/assets/disciplinas/LOM3220.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="43">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,21 +70,30 @@
     <t>Objetivos:</t>
   </si>
   <si>
+    <t>Apresentar os conceitos de spintrônica e as potenciais aplicações em computação quântica.</t>
+  </si>
+  <si>
+    <t>Objectives:</t>
+  </si>
+  <si>
+    <t>To present the concepts of spintronics and the potential applications in quantum computing.</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
     <t>519033 - Carlos Yujiro Shigue</t>
   </si>
   <si>
-    <t>Objectives:</t>
-  </si>
-  <si>
-    <t>To present the concepts of spintronics and the potential applications in quantum computing.</t>
-  </si>
-  <si>
-    <t>Docentes responsáveis:</t>
+    <t>7290967 - Emerson Gonçalves de Melo</t>
   </si>
   <si>
     <t>Programa resumido:</t>
   </si>
   <si>
+    <t>Introdução à nanotecnologia. Spintrônica de metais. Spintrônica de semicondutores. Dispositivos da spintrônica. Introdução à computação clássica. Introdução à computação quântica. Algoritmos quânticos. Decoerência. Pontos quânticos. Transistor de Kane. Introdução a modelos da consciência: o cérebro é um computador quântico?</t>
+  </si>
+  <si>
     <t>Short syllabus:</t>
   </si>
   <si>
@@ -94,6 +103,9 @@
     <t>Programa:</t>
   </si>
   <si>
+    <t>Introdução à nanotecnologia.Spintrônica de metais. Spintrônica de semicondutores Dispositivos da spintrônica.Introdução à computação clássica. Introdução à computação quântica. Algoritmos quânticos.Decoerência. Pontos quânticos. Transistor de Kane.Introdução a modelos da consciência: o cérebro é um computador quântico?</t>
+  </si>
+  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -106,25 +118,27 @@
     <t>Método:</t>
   </si>
   <si>
-    <t>7290967 - Emerson Gonçalves de Melo</t>
+    <t>Aulas expositivas, seminários e exercícios comentados.</t>
   </si>
   <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>Aulas expositivas, seminários e exercícios comentados.</t>
+    <t>Média aritmética de duas provas sendo a primeira com peso 1 e a segunda com peso 2.</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>Média aritmética de duas provas sendo a primeira com peso 1 e a segunda com peso 2.</t>
+    <t>Aplicação de uma prova escrita dentro do prazo regimental antes do início do próximo semestre letivo. A nota da segunda avaliação será a média aritmética entre a nota da prova de recuperação e a nota final da primeira avaliação</t>
   </si>
   <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>Aplicação de uma prova escrita dentro do prazo regimental antes do início do próximo semestre letivo. A nota da segunda avaliação será a média aritmética entre a nota da prova de recuperação e a nota final da primeira avaliação</t>
+    <t>KITAEV, A. YU.; SHEN, A. H.; VYALVI, M. N. Classical and Quantum Computation, American Mathematical Society; 2002.
+BENENTI, G.; CASATI, G.; STRINI, G. Principles of Quantum Computation and Information, Vol. I: Basic Concepts, 2004.
+LO, H. K.; POPESCU, S.; SPILLER, T. Introduction to Quantum Computation and Information World Scientific Publishing Company, 2001.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -487,13 +501,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
   </cols>
@@ -618,40 +632,34 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="60" customHeight="1">
-      <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="60" customHeight="1">
+      <c r="A15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="120" customHeight="1">
-      <c r="A15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="C15" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="120" customHeight="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="60" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
@@ -662,30 +670,30 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" ht="120" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="B17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="120" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="60" customHeight="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" s="3" t="s">
         <v>32</v>
       </c>
     </row>
@@ -700,7 +708,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="120" customHeight="1">
+    <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>35</v>
       </c>
@@ -711,17 +719,39 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" ht="60" customHeight="1">
       <c r="A22" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="30" customHeight="1">
+      <c r="B22" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="120" customHeight="1">
+      <c r="A23" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="B23" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="30" customHeight="1">
+      <c r="B25" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
